--- a/Lab02/HW/bctc.xlsx
+++ b/Lab02/HW/bctc.xlsx
@@ -17,6 +17,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Line item</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -29,10 +35,7 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>line item</t>
+    <t>Doanh thu bán hàng và cung cấp dịch vụ</t>
   </si>
   <si>
     <t>11,838,267,527,921</t>
@@ -47,7 +50,7 @@
     <t>13,308,557,627,263</t>
   </si>
   <si>
-    <t>Doanh thu bán hàng và cung cấp dịch vụ</t>
+    <t>Các khoản giảm trừ doanh thu</t>
   </si>
   <si>
     <t>30,656,778,415</t>
@@ -62,7 +65,7 @@
     <t>15,479,806,923</t>
   </si>
   <si>
-    <t>Các khoản giảm trừ doanh thu</t>
+    <t>Doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
   </si>
   <si>
     <t>11,807,610,749,506</t>
@@ -77,7 +80,7 @@
     <t>13,293,077,820,340</t>
   </si>
   <si>
-    <t>Doanh thu thuần về bán hàng và cung cấp dịch vụ</t>
+    <t>Giá vốn hàng bán</t>
   </si>
   <si>
     <t>6,327,315,699,575</t>
@@ -92,7 +95,7 @@
     <t>7,022,778,495,998</t>
   </si>
   <si>
-    <t>Giá vốn hàng bán</t>
+    <t>Lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
   </si>
   <si>
     <t>5,480,295,049,931</t>
@@ -107,7 +110,7 @@
     <t>6,270,299,324,342</t>
   </si>
   <si>
-    <t>Lợi nhuận gộp về bán hàng và cung cấp dịch vụ</t>
+    <t>Doanh thu hoạt động tài chính</t>
   </si>
   <si>
     <t>194,133,215,944</t>
@@ -122,7 +125,7 @@
     <t>213,488,861,058</t>
   </si>
   <si>
-    <t>Doanh thu hoạt động tài chính</t>
+    <t>Chi phí tài chính</t>
   </si>
   <si>
     <t>33,702,023,732</t>
@@ -137,7 +140,7 @@
     <t>17,833,795,652</t>
   </si>
   <si>
-    <t>Chi phí tài chính</t>
+    <t>Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết</t>
   </si>
   <si>
     <t>-6,270,069,878</t>
@@ -152,7 +155,7 @@
     <t>8,393,748,492</t>
   </si>
   <si>
-    <t>Phần lãi lỗ hoặc lỗ trong công ty liên doanh, liên kết</t>
+    <t>Chi phí bán hàng</t>
   </si>
   <si>
     <t>3,192,490,113,496</t>
@@ -167,7 +170,7 @@
     <t>2,980,515,590,409</t>
   </si>
   <si>
-    <t>Chi phí bán hàng</t>
+    <t>Chi phí quản lý doanh nghiệp</t>
   </si>
   <si>
     <t>296,402,762,521</t>
@@ -182,7 +185,7 @@
     <t>265,435,950,848</t>
   </si>
   <si>
-    <t>Chi phí quản lý doanh nghiệp</t>
+    <t>Lợi nhuận thuần từ hoạt động kinh doanh</t>
   </si>
   <si>
     <t>2,145,563,296,248</t>
@@ -197,7 +200,7 @@
     <t>3,228,396,596,983</t>
   </si>
   <si>
-    <t>Lợi nhuận thuần từ hoạt động kinh doanh</t>
+    <t>Thu nhập khác</t>
   </si>
   <si>
     <t>94,658,510,605</t>
@@ -212,7 +215,7 @@
     <t>65,331,706,324</t>
   </si>
   <si>
-    <t>Thu nhập khác</t>
+    <t>Chi phí khác</t>
   </si>
   <si>
     <t>36,051,875,486</t>
@@ -227,7 +230,7 @@
     <t>70,713,968,872</t>
   </si>
   <si>
-    <t>Chi phí khác</t>
+    <t>Lợi nhuận khác</t>
   </si>
   <si>
     <t>58,606,635,119</t>
@@ -242,7 +245,7 @@
     <t>-5,382,262,548</t>
   </si>
   <si>
-    <t>Lợi nhuận khác</t>
+    <t>Tổng lợi nhuận kế toán trước thuế</t>
   </si>
   <si>
     <t>2,204,169,931,367</t>
@@ -257,7 +260,7 @@
     <t>3,223,014,334,435</t>
   </si>
   <si>
-    <t>Tổng lợi nhuận kế toán trước thuế</t>
+    <t>Chi phí thuế TNDN hiện hành</t>
   </si>
   <si>
     <t>377,978,824,943</t>
@@ -272,7 +275,7 @@
     <t>528,097,208,664</t>
   </si>
   <si>
-    <t>Chi phí thuế TNDN hiện hành</t>
+    <t>Chi phí thuế TNDN hoãn lại</t>
   </si>
   <si>
     <t>-2,096,140,601</t>
@@ -287,7 +290,7 @@
     <t>-2,150,517,050</t>
   </si>
   <si>
-    <t>Chi phí thuế TNDN hoãn lại</t>
+    <t>Lợi nhuận sau thuế thu nhập doanh nghiệp</t>
   </si>
   <si>
     <t>1,828,287,247,025</t>
@@ -302,7 +305,7 @@
     <t>2,697,067,642,821</t>
   </si>
   <si>
-    <t>Lợi nhuận sau thuế thu nhập doanh nghiệp</t>
+    <t>Lợi ích của cổ đông thiểu số</t>
   </si>
   <si>
     <t>-676,593,137</t>
@@ -317,7 +320,7 @@
     <t>3,163,882,771</t>
   </si>
   <si>
-    <t>Lợi ích của cổ đông thiểu số</t>
+    <t>Lợi nhuận sau thuế của công ty mẹ</t>
   </si>
   <si>
     <t>1,828,963,840,162</t>
@@ -332,7 +335,7 @@
     <t>2,693,903,760,050</t>
   </si>
   <si>
-    <t>Lợi nhuận sau thuế của công ty mẹ</t>
+    <t>Lãi cơ bản trên cổ phiếu</t>
   </si>
   <si>
     <t>1,136</t>
@@ -345,9 +348,6 @@
   </si>
   <si>
     <t>1,699</t>
-  </si>
-  <si>
-    <t>Lãi cơ bản trên cổ phiếu</t>
   </si>
   <si>
     <t>Lãi suy giảm trên cổ phiếu</t>
@@ -717,448 +717,448 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>79</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>89</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>94</v>
-      </c>
-      <c r="E19" t="n">
-        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>99</v>
-      </c>
-      <c r="E20" t="n">
-        <v>18.1</v>
       </c>
       <c r="F20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18.2</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>107</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>109</v>
-      </c>
-      <c r="E22" t="n">
-        <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s"/>
-      <c r="B23" t="s"/>
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
       <c r="C23" t="s"/>
       <c r="D23" t="s"/>
-      <c r="E23" t="n">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
     </row>
     <row r="24">
-      <c r="A24" t="s"/>
-      <c r="B24" t="s"/>
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
       <c r="C24" t="s"/>
       <c r="D24" t="s"/>
-      <c r="E24" t="n">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
     </row>
   </sheetData>
 </worksheet>
